--- a/supplementary/data4/negative.xlsx
+++ b/supplementary/data4/negative.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simulation" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fit" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="description" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="simulation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="negative1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="negative0.5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="negative0.01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="negative0.15" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="negative0.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="description" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +482,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>snr</t>
+          <t>SNR</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -763,7 +767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,570 +778,214 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>snr</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gain_mean</t>
+          <t>95% LL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gain_ll</t>
+          <t>95% UL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gain_ul</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pi_mean</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>pi_ll</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>pi_ul</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lamda_mean</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lamda_ll</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lamda_ul</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>proximity_mean</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>proximity_ll</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>proximity_ul</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Keq_mean</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Keq_ll</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Keq_ul</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)_median</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)_ll</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)_ul</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>lamda</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>negative0.01</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.543570698083105</v>
+        <v>7.055529114225986</v>
       </c>
       <c r="C2" t="n">
-        <v>7.034984389380446</v>
+        <v>7.03702555258845</v>
       </c>
       <c r="D2" t="n">
-        <v>7.017546332966962</v>
+        <v>7.073461427268256</v>
       </c>
       <c r="E2" t="n">
-        <v>7.055130856364817</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.004197712420953142</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.001350862675551756</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.00879152930258578</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.00799837652891696</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.00554236744221454</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.01123223430586952</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.87236579034479</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.864106438408905</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.739222262720722</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.004386899500579383</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.001352689983274806</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.008869508585808043</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2493</v>
-      </c>
-      <c r="V2" t="n">
         <v>7</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>negative0.05</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.138561147093267</v>
+      </c>
       <c r="C3" t="n">
-        <v>7.021610872959609</v>
+        <v>0.1719437819165519</v>
       </c>
       <c r="D3" t="n">
-        <v>7.001162772616381</v>
+        <v>2.576575073923155</v>
       </c>
       <c r="E3" t="n">
-        <v>7.04187696256668</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001282953168743938</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.99642306324328e-05</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.004712161791384353</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0539474399642069</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.04736324560074493</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.06051251733074728</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9546448483779481</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1101369654775383</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.459473657250785</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.001261767293292325</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.996675168449326e-05</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.004734479853248951</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>negative0.15</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9647174549044056</v>
+      </c>
       <c r="C4" t="n">
-        <v>7.020395662557987</v>
+        <v>0.93654378466293</v>
       </c>
       <c r="D4" t="n">
-        <v>7.001756264023991</v>
+        <v>0.9907996862030576</v>
       </c>
       <c r="E4" t="n">
-        <v>7.040480114776496</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.001260710425659282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.032819435728641e-05</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.005648240271861466</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1597877945159268</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1491080550879502</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.17198609048062</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.060470815320978</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1538313340053526</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.472257961831991</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.001407971745618719</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.032860944479414e-05</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.005680342866572275</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>negative0.5</t>
+          <t>SNR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>7.023758609856156</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.00612590741168</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>7.046165190111943</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.004256465392401454</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0005293748829111183</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.01033525565732855</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.5004122851690719</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.4820739995155349</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5203969058768158</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8332581060583135</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.346727281763315</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.397380540097811</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.004110309675221417</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.0005296557263640188</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.01044323145891217</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2500</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.5</v>
+        <v>3.75889905491011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>negative1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>7.058650977088741</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.037880579556239</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.078245985267571</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.001860566722817372</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.560988006951766e-06</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.009006473988546319</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9607506944704381</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9367897300909021</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9877463562763048</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.189380475722245</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.1782439058094786</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.668872160373963</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.001898316635779077</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5.561019178487978e-06</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.009088385075644682</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>2500</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1</v>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1346,6 +994,936 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.022095170674805</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.003739947566877</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.039883653865553</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8168163782470996</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3555243715514592</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.44453178660824</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4964787710221851</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4771664164636042</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5144400540639142</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.566777390594654</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>3.75889905491011</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.988452871518326</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.970387263374565</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.005960448888285</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.83744914780416</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.617092091458257</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.773426455973218</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.009230967167765048</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0065647910915515</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0120511911633958</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>3.75889905491011</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.008815910607862</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.989976320016642</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.027074429643054</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.116230141210798</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2375186297543959</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.446584965988975</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1580898181307703</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1474529929414246</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.168118264232296</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>3.75889905491011</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.994069843601376</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.975866107782835</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.011711425829141</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9895816649410067</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1543701331889495</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.305300492637987</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05330134586821112</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0472927908357236</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.059093896692794</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>3.75889905491011</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/supplementary/data4/negative.xlsx
+++ b/supplementary/data4/negative.xlsx
@@ -767,7 +767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.055529114225986</v>
+        <v>7.035484003833729</v>
       </c>
       <c r="C2" t="n">
-        <v>7.03702555258845</v>
+        <v>7.015532789865194</v>
       </c>
       <c r="D2" t="n">
-        <v>7.073461427268256</v>
+        <v>7.056674436943165</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.138561147093267</v>
+        <v>1.659309840840578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1719437819165519</v>
+        <v>0.4663384162471591</v>
       </c>
       <c r="D3" t="n">
-        <v>2.576575073923155</v>
+        <v>2.887239362426975</v>
       </c>
       <c r="E3" t="n">
         <v>0.2</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9647174549044056</v>
+        <v>0.9903809608453777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.93654378466293</v>
+        <v>0.9631272177985086</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9907996862030576</v>
+        <v>1.015024637358733</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -857,46 +857,56 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.006201479233525427</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0001722078227484</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0193475627197675</v>
+      </c>
       <c r="E5" t="n">
-        <v>3.75889905491011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
+          <t>Keq</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>0.005782181135595581</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0001722375011582</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0197293096879434</v>
+      </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3.75889905491011</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>MCC</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -909,11 +919,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Recall</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -922,7 +932,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -935,11 +945,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -948,7 +958,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -961,32 +971,45 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>p(specific)</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -999,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,13 +1059,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.022095170674805</v>
+        <v>7.065198383931921</v>
       </c>
       <c r="C2" t="n">
-        <v>7.003739947566877</v>
+        <v>7.044840867098474</v>
       </c>
       <c r="D2" t="n">
-        <v>7.039883653865553</v>
+        <v>7.08682087992343</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -1055,13 +1078,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8168163782470996</v>
+        <v>1.065254059799781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3555243715514592</v>
+        <v>0.3588637322069236</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44453178660824</v>
+        <v>1.903891481824993</v>
       </c>
       <c r="E3" t="n">
         <v>0.2</v>
@@ -1074,13 +1097,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4964787710221851</v>
+        <v>0.4983810922921887</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4771664164636042</v>
+        <v>0.4802265951658678</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5144400540639142</v>
+        <v>0.5162321881725614</v>
       </c>
       <c r="E4" t="n">
         <v>0.5</v>
@@ -1089,48 +1112,56 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.566777390594654</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>0.005908903452878243</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0010096375108364</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0149848781203811</v>
+      </c>
       <c r="E5" t="n">
-        <v>3.75889905491011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
+          <t>Keq</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>0.006009665857856413</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0010106606957391</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0152128470576374</v>
+      </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3.75889905491011</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>MCC</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1143,11 +1174,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Recall</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2496</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1156,11 +1187,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1169,11 +1200,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1182,7 +1213,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1195,32 +1226,45 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>p(specific)</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1233,7 +1277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,13 +1314,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.988452871518326</v>
+        <v>6.993261934770334</v>
       </c>
       <c r="C2" t="n">
-        <v>6.970387263374565</v>
+        <v>6.975712383260706</v>
       </c>
       <c r="D2" t="n">
-        <v>7.005960448888285</v>
+        <v>7.010268803166687</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -1289,13 +1333,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.83744914780416</v>
+        <v>2.81437324848573</v>
       </c>
       <c r="C3" t="n">
-        <v>1.617092091458257</v>
+        <v>1.673844856758581</v>
       </c>
       <c r="D3" t="n">
-        <v>3.773426455973218</v>
+        <v>3.708428615021359</v>
       </c>
       <c r="E3" t="n">
         <v>0.2</v>
@@ -1308,13 +1352,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009230967167765048</v>
+        <v>0.008101010013141006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0065647910915515</v>
+        <v>0.0055226814224824</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0120511911633958</v>
+        <v>0.0106560042039859</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
@@ -1323,46 +1367,58 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.004661785010499718</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001724465436232</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0089104239963305</v>
+      </c>
       <c r="E5" t="n">
-        <v>3.75889905491011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
+          <t>Keq</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>0.004635756578717215</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0017274449292934</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0089905393183958</v>
+      </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
+          <t>SNR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.585897257992917</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3.75889905491011</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>MCC</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1375,11 +1431,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Recall</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1388,7 +1444,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1401,11 +1457,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2491</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1414,11 +1470,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1427,32 +1483,45 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>p(specific)</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1465,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,13 +1571,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.008815910607862</v>
+        <v>7.014239734782917</v>
       </c>
       <c r="C2" t="n">
-        <v>6.989976320016642</v>
+        <v>6.993055132452316</v>
       </c>
       <c r="D2" t="n">
-        <v>7.027074429643054</v>
+        <v>7.036742369629454</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -1521,13 +1590,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.116230141210798</v>
+        <v>1.090440611837622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2375186297543959</v>
+        <v>0.1052648793804273</v>
       </c>
       <c r="D3" t="n">
-        <v>2.446584965988975</v>
+        <v>2.623131891848518</v>
       </c>
       <c r="E3" t="n">
         <v>0.2</v>
@@ -1540,13 +1609,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1580898181307703</v>
+        <v>0.1574803749338659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1474529929414246</v>
+        <v>0.1462600397160351</v>
       </c>
       <c r="D4" t="n">
-        <v>0.168118264232296</v>
+        <v>0.1674976295876317</v>
       </c>
       <c r="E4" t="n">
         <v>0.15</v>
@@ -1555,46 +1624,56 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001927302263457966</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.649102848963378e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0072701837890717</v>
+      </c>
       <c r="E5" t="n">
-        <v>3.75889905491011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
+          <t>Keq</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>0.001952527370566309</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.649236035420384e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0073234298428086</v>
+      </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3.75889905491011</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>MCC</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1607,11 +1686,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Recall</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1620,7 +1699,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1633,11 +1712,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1646,7 +1725,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1659,32 +1738,45 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>p(specific)</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1697,7 +1789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,13 +1826,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.994069843601376</v>
+        <v>7.03002203292903</v>
       </c>
       <c r="C2" t="n">
-        <v>6.975866107782835</v>
+        <v>7.008910601250035</v>
       </c>
       <c r="D2" t="n">
-        <v>7.011711425829141</v>
+        <v>7.052446739926667</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -1753,13 +1845,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9895816649410067</v>
+        <v>1.163499682840383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1543701331889495</v>
+        <v>0.1511009480506624</v>
       </c>
       <c r="D3" t="n">
-        <v>2.305300492637987</v>
+        <v>2.719343574057648</v>
       </c>
       <c r="E3" t="n">
         <v>0.2</v>
@@ -1772,13 +1864,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05330134586821112</v>
+        <v>0.05460195441584345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0472927908357236</v>
+        <v>0.0478210701433889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.059093896692794</v>
+        <v>0.0610261326290134</v>
       </c>
       <c r="E4" t="n">
         <v>0.05</v>
@@ -1787,46 +1879,56 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001381880995080947</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.228813138221671e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.004211227619836</v>
+      </c>
       <c r="E5" t="n">
-        <v>3.75889905491011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
+          <t>Keq</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>0.001296913710074384</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.229086643436341e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0042290376263378</v>
+      </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3.75889905491011</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>MCC</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1839,11 +1941,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Recall</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1852,7 +1954,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1865,11 +1967,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1878,7 +1980,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1891,32 +1993,45 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>p(specific)</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
